--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841738.151192442</v>
+        <v>2839444.555735849</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8784951.018092228</v>
+        <v>8784951.01809223</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109.36312693642</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>120.2145230749714</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740221</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.99283228938562</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>24.14763241892861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.43746832365933</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.8293786295316</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697783</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>34.987230763697</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="D13" t="n">
-        <v>41.33703994142822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>140.7058473537591</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444121</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711234</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1029.581243592353</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>1029.581243592353</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>1029.581243592353</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>643.7929909941088</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656475</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1416.181083656475</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>662.3527266874008</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1580.897804630673</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.269056790534</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.269056790534</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.269056790534</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.269056790534</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.269056790534</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>535.7199774115536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626.3436713194226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1619.227459603818</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1364.542971397931</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1075.12580136097</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>847.1362504629527</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.3436713194226</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480555</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>191.9478189608271</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.9157728462276</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544677</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1891.953910953445</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1700.268026780272</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1478.501411349798</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1478.501411349798</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703096</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424027</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5498,43 +5498,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5777,7 +5777,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,40 +5975,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6376,19 +6376,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,16 +6409,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1185.011911417804</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,7 +6534,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273902</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,34 +6835,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684976</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.288144095049</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7193,16 +7193,16 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362669</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107834</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868008</v>
       </c>
       <c r="D13" t="n">
-        <v>107.2784330767841</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>40.32043864788548</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823098</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911155</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884403</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884403</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768948</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768923</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.14432176891</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768921</v>
-      </c>
       <c r="J4" t="n">
+        <v>9947.144321768919</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="K4" t="n">
-        <v>9947.144321768948</v>
-      </c>
       <c r="L4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768948</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768978</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668260.5062849524</v>
+        <v>-668260.5062849526</v>
       </c>
       <c r="C6" t="n">
-        <v>276852.5988714141</v>
+        <v>276852.5988714143</v>
       </c>
       <c r="D6" t="n">
-        <v>480291.3404835199</v>
+        <v>480291.3404835202</v>
       </c>
       <c r="E6" t="n">
-        <v>229413.808791224</v>
+        <v>229379.0708657881</v>
       </c>
       <c r="F6" t="n">
-        <v>554826.2705985791</v>
+        <v>554791.5326731437</v>
       </c>
       <c r="G6" t="n">
-        <v>554826.270598579</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="H6" t="n">
-        <v>554826.2705985791</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="I6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="J6" t="n">
-        <v>387221.0927885962</v>
+        <v>387186.354863161</v>
       </c>
       <c r="K6" t="n">
-        <v>505716.1778925244</v>
+        <v>505681.4399670888</v>
       </c>
       <c r="L6" t="n">
-        <v>554826.2705985787</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="M6" t="n">
-        <v>469771.2426630668</v>
+        <v>469736.5047376312</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.2705985786</v>
+        <v>554791.5326731431</v>
       </c>
       <c r="O6" t="n">
-        <v>554826.2705985786</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="P6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731433</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.625264418577701e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.30732615561634e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>297.5129188052914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>266.0234155810822</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512256</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56474013018801</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>200.7743698819535</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>111.4435131414759</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103426</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.94492190635033</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30466,16 +30466,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.30732615561634e-14</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.30732615561634e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.638636996207863e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.029269365552</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068259</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150255</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118745</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984183</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,28 +34454,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070494</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>367.7110102589286</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856778</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432467</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316922</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779320003</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.118870915085</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237161</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
